--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/68.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/68.xlsx
@@ -479,13 +479,13 @@
         <v>-7.572312043012499</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.135130837047774</v>
+        <v>-9.162807965255181</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.773734810533298</v>
+        <v>-1.736775239611105</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.911183813586169</v>
+        <v>-7.854049003984877</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.5182049126622</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.780489721024976</v>
+        <v>-9.807446772576089</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.774193041132758</v>
+        <v>-1.741946699233587</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.735877878535457</v>
+        <v>-7.686807927484669</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.393364705955189</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.34488580422894</v>
+        <v>-10.36380418183524</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.777348286117614</v>
+        <v>-1.743190468003551</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.543722149727444</v>
+        <v>-7.488459539432518</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.209225945352213</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.98767859684917</v>
+        <v>-11.00697665123787</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.77268742630596</v>
+        <v>-1.741671760873911</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.109149341502031</v>
+        <v>-7.060498344142177</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.967038149050284</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.61952622429371</v>
+        <v>-11.63344334221447</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.828251159566245</v>
+        <v>-1.794224264480599</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.855931112240206</v>
+        <v>-6.809322514123662</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.677812953538696</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.41247463820569</v>
+        <v>-12.42849961688396</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.618656483373053</v>
+        <v>-1.585546049486328</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.476594729704035</v>
+        <v>-6.428506701366376</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.352128678661503</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.05602678439074</v>
+        <v>-13.07050687133369</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.521275934836294</v>
+        <v>-1.490626853883814</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.828394816010178</v>
+        <v>-5.777112265779137</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.007054978040218</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.67266115593319</v>
+        <v>-13.68699722754488</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.415267558726838</v>
+        <v>-1.380533679287739</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.412373800911491</v>
+        <v>-5.368514586391708</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.661592481702428</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.31534921013068</v>
+        <v>-14.32418651454885</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.333388296754684</v>
+        <v>-1.303668769303965</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.025116575156075</v>
+        <v>-4.976622685430321</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.333151309653279</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.16091558916356</v>
+        <v>-15.16642744865993</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.21041229616235</v>
+        <v>-1.183298136977136</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.458455523560487</v>
+        <v>-4.414373739892396</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.042412991718591</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.93647742490173</v>
+        <v>-15.94015636200026</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9759160599641949</v>
+        <v>-0.9456073788855991</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.923202906482201</v>
+        <v>-3.883781982625763</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.805128308420712</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.70541455540199</v>
+        <v>-16.70487777098548</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8857100933847023</v>
+        <v>-0.852652028709344</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.444626868405746</v>
+        <v>-3.410626157925783</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.642589442095209</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.4295629178807</v>
+        <v>-17.42841079523063</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7059658676706452</v>
+        <v>-0.674138479462409</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.87297764942746</v>
+        <v>-2.844501890746706</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.560825689707601</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.20280741601588</v>
+        <v>-18.20069955525836</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5207752439744299</v>
+        <v>-0.487219671791086</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.592200122683803</v>
+        <v>-2.561642687851215</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.568267177247963</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.0729873243912</v>
+        <v>-19.06905963353869</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3563359202823505</v>
+        <v>-0.323330224818359</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.033512283518827</v>
+        <v>-2.00046731114631</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.664338995352322</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.89557671193685</v>
+        <v>-19.89706923446081</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1088128427566774</v>
+        <v>-0.08045491480149877</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.757002847501572</v>
+        <v>-1.728147412038408</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.84878698030184</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.6480699100679</v>
+        <v>-20.64204745076071</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009921251714936279</v>
+        <v>0.0312747976497915</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.317598979527562</v>
+        <v>-1.290039682045728</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.112220185590202</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.37623760951902</v>
+        <v>-21.37029370402888</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2777897678566517</v>
+        <v>0.3037779889974779</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9395194580641965</v>
+        <v>-0.9094726230424351</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.443664896688329</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.01370183488266</v>
+        <v>-22.0025733774672</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4290451425871129</v>
+        <v>0.452794579942004</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7053243448314006</v>
+        <v>-0.6793099390848909</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.832087782968055</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.63099082156721</v>
+        <v>-22.62072645613929</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6176135804164935</v>
+        <v>0.639621741493435</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3712742378247599</v>
+        <v>-0.3458228011004444</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.263828461776457</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.08563413004898</v>
+        <v>-23.07602437976316</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7904319779272776</v>
+        <v>0.8104108320637515</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2566904033539734</v>
+        <v>-0.2263817222753775</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.725670686838652</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.52996070389148</v>
+        <v>-23.51638398584461</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8745631159882092</v>
+        <v>0.8945943393360501</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1230179913399502</v>
+        <v>-0.08714508155362079</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.197461510117729</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.01309286335686</v>
+        <v>-24.0009301140169</v>
       </c>
       <c r="F24" t="n">
-        <v>1.023186937847484</v>
+        <v>1.039945085484893</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1464139365181147</v>
+        <v>-0.1169562551242311</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.667718865695607</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.26090397154505</v>
+        <v>-24.24823062239426</v>
       </c>
       <c r="F25" t="n">
-        <v>1.07754617924633</v>
+        <v>1.093597342530287</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03496682705115825</v>
+        <v>0.07046006005507761</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.120841164852934</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.5333940705899</v>
+        <v>-24.51841647613896</v>
       </c>
       <c r="F26" t="n">
-        <v>1.215054635992979</v>
+        <v>1.22992749202118</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.06678655063473675</v>
+        <v>-0.03083508703135697</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.546321775688368</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.57828757703417</v>
+        <v>-24.56845525760004</v>
       </c>
       <c r="F27" t="n">
-        <v>1.183214155481901</v>
+        <v>1.197890626967476</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2690495372365628</v>
+        <v>-0.230086843979586</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.926883401750471</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.66484079112082</v>
+        <v>-24.65259948796381</v>
       </c>
       <c r="F28" t="n">
-        <v>1.112240781776904</v>
+        <v>1.12715291471363</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6263122971815838</v>
+        <v>-0.5811569446804705</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.25454118038537</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.48027859796101</v>
+        <v>-24.46651858767436</v>
       </c>
       <c r="F29" t="n">
-        <v>1.120567486384242</v>
+        <v>1.139250202539385</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6690062967484525</v>
+        <v>-0.6271894814719794</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.520495437353288</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.2184980026407</v>
+        <v>-24.2052878690734</v>
       </c>
       <c r="F30" t="n">
-        <v>1.005473052102628</v>
+        <v>1.027324105545469</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9897546240678994</v>
+        <v>-0.9436566257621819</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.718590199480238</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.99964706833841</v>
+        <v>-23.98524553521251</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9358874624988541</v>
+        <v>0.9573588391592849</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.195277594077315</v>
+        <v>-1.153565517223576</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.842919493728457</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.65099904366324</v>
+        <v>-23.63862681747781</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9128319171945746</v>
+        <v>0.9356518010477031</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.443599302076334</v>
+        <v>-1.399779364465076</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.888568777412393</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.31785230555268</v>
+        <v>-23.30718207873667</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8735026394580294</v>
+        <v>0.8983125533431003</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.720566968693048</v>
+        <v>-1.67605313903118</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.857999009135513</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.87463857745173</v>
+        <v>-22.86036796735425</v>
       </c>
       <c r="F34" t="n">
-        <v>0.813448246323032</v>
+        <v>0.8379046680313763</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.949302591640845</v>
+        <v>-1.910758852074803</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.752884716587147</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.50650920614807</v>
+        <v>-22.49623174841732</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7266724630880717</v>
+        <v>0.7559730368478546</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.212798278633424</v>
+        <v>-2.180604305945619</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.58527728244116</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.93831635512</v>
+        <v>-21.92754138988126</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7735690918671344</v>
+        <v>0.8031184193809101</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.499951756861001</v>
+        <v>-2.472628120830319</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.360615322347337</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.49528591925884</v>
+        <v>-21.4810938629784</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7896071628482488</v>
+        <v>0.8200074900467368</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.682694119925814</v>
+        <v>-2.656561883453729</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.092559534615544</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.00547668534418</v>
+        <v>-20.99622042723508</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8869353421736405</v>
+        <v>0.9156860392140709</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.815659547586384</v>
+        <v>-2.78878104985232</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.78998960245079</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.51759201994726</v>
+        <v>-20.51215871426794</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9053693045747907</v>
+        <v>0.9343294784606888</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.866667159457748</v>
+        <v>-2.841477568790268</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.468906714113899</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.86305543167801</v>
+        <v>-19.85589394202358</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9271156195948977</v>
+        <v>0.9557615782125943</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.981931793676305</v>
+        <v>-2.957959787173104</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.141258168691532</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.33082713655616</v>
+        <v>-19.31942374078101</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9977355011231681</v>
+        <v>1.028554782012591</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.134155998817054</v>
+        <v>-3.112160930042954</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.81896910307993</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.56761134239774</v>
+        <v>-18.55870857646536</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9764474167025216</v>
+        <v>1.005918190399247</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.347220135263304</v>
+        <v>-3.327005619675679</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.511787771855841</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.05163059510247</v>
+        <v>-18.04254453693031</v>
       </c>
       <c r="F43" t="n">
-        <v>1.078069871359999</v>
+        <v>1.106794383794746</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.387636074135712</v>
+        <v>-3.367107343279886</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.226716110131871</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.48747017334965</v>
+        <v>-17.47927439177073</v>
       </c>
       <c r="F44" t="n">
-        <v>1.039499947188274</v>
+        <v>1.066561737162122</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.540672002052648</v>
+        <v>-3.519318456117793</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.971641240891776</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.84770170268586</v>
+        <v>-16.83772536792047</v>
       </c>
       <c r="F45" t="n">
-        <v>1.053024296023777</v>
+        <v>1.08034793205446</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.711788400194008</v>
+        <v>-3.693210422461599</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.74441641864995</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.37428403192905</v>
+        <v>-16.36214746719477</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8943848624905826</v>
+        <v>0.9157645930311212</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.865924081549649</v>
+        <v>-3.852229532777204</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.544191067594891</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.7684769948367</v>
+        <v>-15.76220578177552</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9678850506440327</v>
+        <v>0.9904430884403267</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.85250447113688</v>
+        <v>-3.835916523436413</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.363389230762639</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.13859321281842</v>
+        <v>-15.12969044688605</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9433762597243215</v>
+        <v>0.9683563735463349</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.004938153123097</v>
+        <v>-3.984317776147378</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.202315167070311</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.62578080281085</v>
+        <v>-14.61909063605873</v>
       </c>
       <c r="F49" t="n">
-        <v>0.871800640088605</v>
+        <v>0.8923162786415898</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.103824316486653</v>
+        <v>-4.087773153202697</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.052129147737053</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.10151262781677</v>
+        <v>-14.09924765942515</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8687763181321664</v>
+        <v>0.8869877113850073</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.191110699532441</v>
+        <v>-4.171786460538053</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.906997028496806</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.6144265928932</v>
+        <v>-13.61997772929809</v>
       </c>
       <c r="F51" t="n">
-        <v>0.974562125093313</v>
+        <v>0.9960073171480602</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.291973800625098</v>
+        <v>-4.26991327033679</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.758573218813151</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.99402163813232</v>
+        <v>-12.9953308684165</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8724814398363748</v>
+        <v>0.8894097874107266</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.402682313454735</v>
+        <v>-4.377820030358296</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.603136026772015</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.58198068309752</v>
+        <v>-12.58758418871378</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8850107736559066</v>
+        <v>0.9007869985801866</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.595702134250302</v>
+        <v>-4.571481373993109</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.43793287183173</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.96598783439431</v>
+        <v>-11.96704831092449</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8576740453223827</v>
+        <v>0.8741048853887489</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.76756479365364</v>
+        <v>-4.743527325636231</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.259424933062329</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.5795161468094</v>
+        <v>-11.58238336113173</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8133696925059817</v>
+        <v>0.8324844546549017</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.987711865937263</v>
+        <v>-4.960846460506041</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.066981204070545</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.19291353619607</v>
+        <v>-11.20435620887974</v>
       </c>
       <c r="F56" t="n">
-        <v>0.739411273753071</v>
+        <v>0.75829037445084</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.195041573738838</v>
+        <v>-5.168254722124666</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.85942439441185</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.63785226491825</v>
+        <v>-10.65049942946336</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7184374046006259</v>
+        <v>0.7379711204404812</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.274250005931281</v>
+        <v>-5.246769262266497</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.642747765900316</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.39530426247243</v>
+        <v>-10.4129919636116</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6376055268558092</v>
+        <v>0.6589459804878227</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.419103244572137</v>
+        <v>-5.395288345703038</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.418069459228595</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.88784660432713</v>
+        <v>-9.904945151838424</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6661860239592972</v>
+        <v>0.6856411859821021</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.63619981029364</v>
+        <v>-5.612908603538209</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.190237030183612</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.743346857862999</v>
+        <v>-9.768379340896379</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6547433512756285</v>
+        <v>0.6712920220675703</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.692837112386946</v>
+        <v>-5.672151273897019</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.962230035766117</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.360986153370389</v>
+        <v>-9.390862788455207</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6920171374660227</v>
+        <v>0.7081075776585041</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.707919445260615</v>
+        <v>-5.682965516044285</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.741691832662599</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.081897533693315</v>
+        <v>-9.117534782028493</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6546909820642617</v>
+        <v>0.6699958840862394</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.80982993058061</v>
+        <v>-5.779704541741799</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.532500392462985</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.772657340571746</v>
+        <v>-8.802520883353722</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6168018576403065</v>
+        <v>0.6308629908923202</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.795755705025755</v>
+        <v>-5.773551159406187</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.337279559157035</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.466768776977657</v>
+        <v>-8.499970856984275</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5141712956640158</v>
+        <v>0.5291096132064252</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.725567869491261</v>
+        <v>-5.706204353588348</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.156791207621024</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.349029697522015</v>
+        <v>-8.382925669579244</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3812189603062876</v>
+        <v>0.3905144953239131</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.751791752083239</v>
+        <v>-5.725790438639571</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.991641353684888</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.152448770353498</v>
+        <v>-8.185873419508424</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3335891625680881</v>
+        <v>0.3458042811194186</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.7413310021127</v>
+        <v>-5.712763597312053</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.843473251527061</v>
       </c>
       <c r="E67" t="n">
-        <v>-8.017925358654763</v>
+        <v>-8.055487175507674</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2419168580703222</v>
+        <v>0.2541843458330195</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.695010434658673</v>
+        <v>-5.666639414400652</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.710202448800934</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.878439964179012</v>
+        <v>-7.913972474091457</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1854235713082742</v>
+        <v>0.1987122586926262</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.643073269285545</v>
+        <v>-5.616011479311697</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.590608393417173</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.817861878930346</v>
+        <v>-7.849113205813547</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1760756670792818</v>
+        <v>0.1913281998898927</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.556297486050585</v>
+        <v>-5.530479464846701</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.481208973922679</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.826869383285453</v>
+        <v>-7.858212356288546</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06960906037036542</v>
+        <v>0.08657668485324241</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.451192478837208</v>
+        <v>-5.426762241734547</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.383051083668231</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.889961190679732</v>
+        <v>-7.924171378005162</v>
       </c>
       <c r="F71" t="n">
-        <v>0.07002801406130066</v>
+        <v>0.08817394579993298</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.279225081011137</v>
+        <v>-5.257596596716605</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.293226201353401</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.910411367718508</v>
+        <v>-7.942854094160305</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.005056342735998342</v>
+        <v>0.01005217474335354</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.193902543391608</v>
+        <v>-5.170676798150385</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.211207332228255</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.118513521387744</v>
+        <v>-8.149791032876626</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.04344297466793917</v>
+        <v>-0.02805951882891104</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.926034027249893</v>
+        <v>-4.902742820494462</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.136232869179638</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.247747642738421</v>
+        <v>-8.281093738076297</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.08889945013441208</v>
+        <v>-0.07760079278200249</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.791746277002308</v>
+        <v>-4.771859068985726</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.070484999231867</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.583748502868479</v>
+        <v>-8.616348336944377</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1793803550735809</v>
+        <v>-0.1627400381617471</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.54388279960275</v>
+        <v>-4.525461929504441</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.015942970887595</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.845581467400159</v>
+        <v>-8.876714963557784</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1668248366483656</v>
+        <v>-0.1522531035855245</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.239997358343446</v>
+        <v>-4.230282869634886</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.974599153818716</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.361261091730066</v>
+        <v>-9.391386480568878</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2410189168524273</v>
+        <v>-0.2269839682060969</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.027299806376765</v>
+        <v>-4.009153874638132</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.950401317253048</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.813312124249183</v>
+        <v>-9.845440635422779</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1939128112278969</v>
+        <v>-0.177416509647322</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.933729117966948</v>
+        <v>-3.91462744812087</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.947353361449564</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.25062122376852</v>
+        <v>-10.28547293393319</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2598718329445128</v>
+        <v>-0.2447895000708444</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.783468758252458</v>
+        <v>-3.764131426955229</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.971932502763781</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.85235655467709</v>
+        <v>-10.88259977424148</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3169542733344385</v>
+        <v>-0.2983239263906623</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.455179264496177</v>
+        <v>-3.435606271747797</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.026951658524183</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.53841940818922</v>
+        <v>-11.56685588996145</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3343146669025672</v>
+        <v>-0.3161687351639349</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.295518631341328</v>
+        <v>-3.278184422378883</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.120144289702474</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.378369189303</v>
+        <v>-12.40688422489228</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4013210728465212</v>
+        <v>-0.3831620488050472</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.954974742125191</v>
+        <v>-2.9386617327844</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.257449529152502</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.29646692607904</v>
+        <v>-13.32262534715681</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3824943413601192</v>
+        <v>-0.3626856871605876</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.808210027269442</v>
+        <v>-2.787838404047716</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.446313162466351</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.25575304759515</v>
+        <v>-14.27518202501227</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4348242758184983</v>
+        <v>-0.4163641288116645</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.534201221094957</v>
+        <v>-2.514850797494886</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.688017003895815</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.47485591900531</v>
+        <v>-15.49653677251121</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4936349001835317</v>
+        <v>-0.4707626471190363</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.335250587112087</v>
+        <v>-2.317418870641657</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.986697835119325</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.53674641789203</v>
+        <v>-16.55861056363771</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5893527262593911</v>
+        <v>-0.5662971809551114</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.101906473564004</v>
+        <v>-2.078837835956882</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.345223060617749</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.71819582632939</v>
+        <v>-17.73487542014975</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5182877064345019</v>
+        <v>-0.4962271761461935</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.036222390207064</v>
+        <v>-2.019267858027029</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.764211527288128</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.09263887095663</v>
+        <v>-19.10670000420865</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6735100489260062</v>
+        <v>-0.6513316879121223</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.00850598509113</v>
+        <v>-1.98878897701149</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.239915058479996</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.63324942325107</v>
+        <v>-20.64059420514527</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6547095020452876</v>
+        <v>-0.6334476022303245</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.99485071322721</v>
+        <v>-1.975343181993038</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.76422522174353</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.2714107240192</v>
+        <v>-22.27756410635481</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6976784399718325</v>
+        <v>-0.6750156637528048</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.009055861810483</v>
+        <v>-1.98681203928239</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.333939623551683</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.98156659811398</v>
+        <v>-23.98751050360413</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8350036044786973</v>
+        <v>-0.8163077960207125</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.049105216203322</v>
+        <v>-2.026390070772928</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.941128956591571</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.71848313921726</v>
+        <v>-25.72571009038589</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8847805398829398</v>
+        <v>-0.8647362242322572</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.119044297983823</v>
+        <v>-2.091131508325263</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.578145557098319</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.74502760378519</v>
+        <v>-27.75122026302933</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.05893435228358</v>
+        <v>-1.037934298525451</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.307953135687089</v>
+        <v>-2.283509806281586</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.22602670724838</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.79233646066011</v>
+        <v>-29.80210331858003</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.08798617228937</v>
+        <v>-1.065873272789695</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.368609774752806</v>
+        <v>-2.349206981941367</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.877594891598253</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.9983109356739</v>
+        <v>-32.00256593409746</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.331201882180115</v>
+        <v>-1.305946829998426</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.581110942176861</v>
+        <v>-2.561708149365423</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.520183924492798</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.25590836079262</v>
+        <v>-34.26439217303405</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.456822527946477</v>
+        <v>-1.433282567437054</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.799032322977391</v>
+        <v>-2.77846431521304</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.139956812234873</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.46976440211713</v>
+        <v>-36.47739721467385</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.623408989304599</v>
+        <v>-1.604281134852838</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.891568719462712</v>
+        <v>-2.866915913211741</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.719951094185637</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.80456713709351</v>
+        <v>-38.811060919303</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.891342966960523</v>
+        <v>-1.872293666325812</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.148740824182737</v>
+        <v>-3.12427131017155</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.24015643533831</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.10654746884568</v>
+        <v>-41.11695584960484</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.903584270117537</v>
+        <v>-1.886551184120452</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.378248892998195</v>
+        <v>-3.364279405866073</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.69219294891139</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.44040755801745</v>
+        <v>-43.44982092376065</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.237254700341768</v>
+        <v>-2.220457275795833</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.455912433455314</v>
+        <v>-3.433524595595962</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.05290494740329</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.77599583116432</v>
+        <v>-45.78264672100792</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.278246700539212</v>
+        <v>-2.263229829179752</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.711146877354763</v>
+        <v>-3.693158053250232</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.32304066315939</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.30510143261476</v>
+        <v>-48.31787952018828</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.537461204502546</v>
+        <v>-2.527812177308194</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.75117004714192</v>
+        <v>-3.733325238368647</v>
       </c>
     </row>
   </sheetData>
